--- a/voting_data.xlsx
+++ b/voting_data.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -424,9 +424,86 @@
         <v>2024-09-18T18:36:43.799Z</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>bmagae200@caledonian.ac.uk</v>
+      </c>
+      <c r="B3" t="str">
+        <v>bvxsay376</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2024-09-18T20:14:55.611Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>bmagae200@caledonian.ac.uk</v>
+      </c>
+      <c r="B4" t="str">
+        <v>bvxsay376</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2024-09-18T20:17:03.532Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>bmagae200@caledonian.ac.uk</v>
+      </c>
+      <c r="B5" t="str">
+        <v>vffcct4569cx</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2024-09-18T20:38:06.798Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>bmagae200@caledonian.ac.uk</v>
+      </c>
+      <c r="B6" t="str">
+        <v>bffsswgv84376</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2024-09-18T20:43:21.626Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>fibitope@gmail.com</v>
+      </c>
+      <c r="B7" t="str">
+        <v>vcvse5457c</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2024-09-18T20:47:44.084Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>b.magae@alustudent.com</v>
+      </c>
+      <c r="B8" t="str">
+        <v>hbduyquy</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2024-09-18T21:08:57.244Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>bmagae200@caledonian.ac.uk</v>
+      </c>
+      <c r="B9" t="str">
+        <v>gsdeygwiugwqi</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2024-09-18T21:26:43.884Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>